--- a/Data/MeasurementRuns.xlsx
+++ b/Data/MeasurementRuns.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\consu\OneDrive\PhD\TephraDataBase\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8adc581d7b252b59/PhD/TephraDataBase/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_AF90350FFAE3542E4B921EC9804957CE46D6E1AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFBA7818-FE68-41E0-8692-031157205B21}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="9630"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="243">
   <si>
     <t>SiO2</t>
   </si>
@@ -729,9 +740,6 @@
     <t>RSD_FeOT</t>
   </si>
   <si>
-    <t>9.6, 15</t>
-  </si>
-  <si>
     <t>CFA-47</t>
   </si>
   <si>
@@ -808,14 +816,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -930,13 +938,6 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -987,7 +988,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1214,16 +1215,13 @@
     <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1500,114 +1498,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FF10478"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:FF10475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45:Q45"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A214" sqref="A214:XFD214"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="21" style="4" customWidth="1"/>
-    <col min="3" max="5" width="22.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="22.5546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="7" customWidth="1"/>
-    <col min="11" max="12" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="12.28515625" style="7" customWidth="1"/>
-    <col min="19" max="20" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" style="7" customWidth="1"/>
-    <col min="22" max="23" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" style="7" customWidth="1"/>
-    <col min="25" max="26" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.28515625" style="7" customWidth="1"/>
-    <col min="28" max="29" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.28515625" style="7" customWidth="1"/>
-    <col min="31" max="32" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.28515625" style="7" customWidth="1"/>
-    <col min="34" max="35" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.28515625" style="7" customWidth="1"/>
-    <col min="37" max="37" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="38" max="44" width="12.7109375" style="7" customWidth="1"/>
-    <col min="45" max="45" width="14.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.42578125" style="12" customWidth="1"/>
-    <col min="48" max="48" width="15.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.42578125" style="12" customWidth="1"/>
-    <col min="51" max="51" width="13.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="7" customWidth="1"/>
+    <col min="11" max="12" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="12.33203125" style="7" customWidth="1"/>
+    <col min="19" max="20" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" style="7" customWidth="1"/>
+    <col min="22" max="23" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" style="7" customWidth="1"/>
+    <col min="25" max="26" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.33203125" style="7" customWidth="1"/>
+    <col min="28" max="29" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.33203125" style="7" customWidth="1"/>
+    <col min="31" max="32" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.33203125" style="7" customWidth="1"/>
+    <col min="34" max="35" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.33203125" style="7" customWidth="1"/>
+    <col min="37" max="37" width="10.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="38" max="44" width="12.6640625" style="7" customWidth="1"/>
+    <col min="45" max="45" width="14.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.44140625" style="12" customWidth="1"/>
+    <col min="48" max="48" width="15.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.44140625" style="12" customWidth="1"/>
+    <col min="51" max="51" width="13.44140625" style="12" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="13" style="12" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="10.42578125" style="12" customWidth="1"/>
-    <col min="54" max="54" width="12.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="11.42578125" style="12" customWidth="1"/>
+    <col min="53" max="53" width="10.44140625" style="12" customWidth="1"/>
+    <col min="54" max="54" width="12.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.44140625" style="12" customWidth="1"/>
     <col min="57" max="58" width="13" style="12" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.42578125" style="12" customWidth="1"/>
-    <col min="60" max="61" width="12.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.42578125" style="12" customWidth="1"/>
-    <col min="63" max="63" width="14.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="13.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="11.42578125" style="12" customWidth="1"/>
-    <col min="66" max="67" width="12.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="10.42578125" style="12" customWidth="1"/>
-    <col min="69" max="69" width="13.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="12.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="10.42578125" style="12" customWidth="1"/>
+    <col min="59" max="59" width="10.44140625" style="12" customWidth="1"/>
+    <col min="60" max="61" width="12.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.44140625" style="12" customWidth="1"/>
+    <col min="63" max="63" width="14.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="13.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="11.44140625" style="12" customWidth="1"/>
+    <col min="66" max="67" width="12.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="10.44140625" style="12" customWidth="1"/>
+    <col min="69" max="69" width="13.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="10.44140625" style="12" customWidth="1"/>
     <col min="72" max="73" width="13" style="12" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="10.42578125" style="12" customWidth="1"/>
-    <col min="75" max="75" width="13.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="10.44140625" style="12" customWidth="1"/>
+    <col min="75" max="75" width="13.88671875" style="12" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="13" style="12" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="12" style="12" customWidth="1"/>
-    <col min="78" max="78" width="12.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="12.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="12.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="12.109375" style="12" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="12" style="12" customWidth="1"/>
     <col min="81" max="81" width="13" style="12" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="12.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="12.109375" style="12" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="12" style="12" customWidth="1"/>
     <col min="84" max="85" width="13" style="12" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="12" style="12" customWidth="1"/>
-    <col min="87" max="87" width="12.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="12.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="12.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="12.5546875" style="12" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="12" style="12" customWidth="1"/>
     <col min="90" max="91" width="13" style="12" bestFit="1" customWidth="1"/>
     <col min="92" max="92" width="12" style="12" customWidth="1"/>
-    <col min="93" max="93" width="12.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="12.5546875" style="12" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="13" style="12" bestFit="1" customWidth="1"/>
     <col min="95" max="95" width="12" style="12" customWidth="1"/>
-    <col min="96" max="97" width="12.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="96" max="97" width="12.5546875" style="12" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="12" style="12" customWidth="1"/>
     <col min="99" max="99" width="13" style="12" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="12.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="12.5546875" style="12" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="12" style="12" customWidth="1"/>
     <col min="102" max="102" width="13" style="12" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="12.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="12.109375" style="12" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="12" style="12" customWidth="1"/>
-    <col min="105" max="106" width="12.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="105" max="106" width="12.5546875" style="12" bestFit="1" customWidth="1"/>
     <col min="107" max="107" width="12" style="12" customWidth="1"/>
     <col min="108" max="109" width="13" style="12" bestFit="1" customWidth="1"/>
     <col min="110" max="110" width="12" style="12" customWidth="1"/>
-    <col min="111" max="112" width="12.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="111" max="112" width="12.109375" style="12" bestFit="1" customWidth="1"/>
     <col min="113" max="113" width="12" style="12" customWidth="1"/>
-    <col min="114" max="114" width="13.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="12.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="13.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="12.109375" style="12" bestFit="1" customWidth="1"/>
     <col min="116" max="116" width="12" style="12" customWidth="1"/>
-    <col min="117" max="118" width="12.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="117" max="118" width="12.109375" style="12" bestFit="1" customWidth="1"/>
     <col min="119" max="119" width="12" style="12" customWidth="1"/>
-    <col min="120" max="120" width="12.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="12.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="123" max="16384" width="8.28515625" style="4"/>
+    <col min="120" max="120" width="12.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="12.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="8.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="123" max="16384" width="8.33203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:122" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:122" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>142</v>
       </c>
@@ -1624,7 +1622,7 @@
         <v>231</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G1" s="39" t="s">
         <v>67</v>
@@ -1657,10 +1655,10 @@
         <v>154</v>
       </c>
       <c r="Q1" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="R1" s="41" t="s">
         <v>238</v>
-      </c>
-      <c r="R1" s="41" t="s">
-        <v>239</v>
       </c>
       <c r="S1" s="41" t="s">
         <v>232</v>
@@ -1975,7 +1973,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:122" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>93</v>
       </c>
@@ -2171,7 +2169,7 @@
         <v>2.4352054644772294</v>
       </c>
     </row>
-    <row r="3" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:122" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>100415</v>
       </c>
@@ -2307,7 +2305,7 @@
       <c r="BF3" s="14"/>
       <c r="BG3" s="14"/>
     </row>
-    <row r="4" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:122" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>220115</v>
       </c>
@@ -2443,7 +2441,7 @@
       <c r="BF4" s="14"/>
       <c r="BG4" s="14"/>
     </row>
-    <row r="5" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:122" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>230115</v>
       </c>
@@ -2580,7 +2578,7 @@
       <c r="BF5" s="14"/>
       <c r="BG5" s="14"/>
     </row>
-    <row r="6" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:122" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>149</v>
       </c>
@@ -2719,7 +2717,7 @@
       <c r="BF6" s="14"/>
       <c r="BG6" s="14"/>
     </row>
-    <row r="7" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:122" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>150</v>
       </c>
@@ -2859,7 +2857,7 @@
       <c r="BF7" s="14"/>
       <c r="BG7" s="14"/>
     </row>
-    <row r="8" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:122" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>100912</v>
       </c>
@@ -2995,7 +2993,7 @@
       <c r="BF8" s="14"/>
       <c r="BG8" s="14"/>
     </row>
-    <row r="9" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:122" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>11112</v>
       </c>
@@ -3132,7 +3130,7 @@
       <c r="BF9" s="14"/>
       <c r="BG9" s="14"/>
     </row>
-    <row r="10" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:122" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>123</v>
       </c>
@@ -3272,7 +3270,7 @@
       <c r="BF10" s="14"/>
       <c r="BG10" s="14"/>
     </row>
-    <row r="11" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:122" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>61112</v>
       </c>
@@ -3409,7 +3407,7 @@
       <c r="BF11" s="14"/>
       <c r="BG11" s="14"/>
     </row>
-    <row r="12" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:122" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>141</v>
       </c>
@@ -3549,7 +3547,7 @@
       <c r="BF12" s="14"/>
       <c r="BG12" s="14"/>
     </row>
-    <row r="13" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:122" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>40413</v>
       </c>
@@ -3686,7 +3684,7 @@
       <c r="BF13" s="14"/>
       <c r="BG13" s="14"/>
     </row>
-    <row r="14" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:122" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>127</v>
       </c>
@@ -3826,7 +3824,7 @@
       <c r="BF14" s="14"/>
       <c r="BG14" s="14"/>
     </row>
-    <row r="15" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:122" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>129</v>
       </c>
@@ -3966,7 +3964,7 @@
       <c r="BF15" s="14"/>
       <c r="BG15" s="14"/>
     </row>
-    <row r="16" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:122" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>126</v>
       </c>
@@ -4105,7 +4103,7 @@
       <c r="BF16" s="14"/>
       <c r="BG16" s="14"/>
     </row>
-    <row r="17" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>124</v>
       </c>
@@ -4244,7 +4242,7 @@
       <c r="BF17" s="14"/>
       <c r="BG17" s="14"/>
     </row>
-    <row r="18" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>140</v>
       </c>
@@ -4383,7 +4381,7 @@
       <c r="BF18" s="14"/>
       <c r="BG18" s="14"/>
     </row>
-    <row r="19" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>221013</v>
       </c>
@@ -4520,7 +4518,7 @@
       <c r="BG19" s="14"/>
       <c r="BH19" s="14"/>
     </row>
-    <row r="20" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>138</v>
       </c>
@@ -4659,7 +4657,7 @@
       <c r="BF20" s="14"/>
       <c r="BG20" s="14"/>
     </row>
-    <row r="21" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>130</v>
       </c>
@@ -4798,7 +4796,7 @@
       <c r="BF21" s="14"/>
       <c r="BG21" s="14"/>
     </row>
-    <row r="22" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>131</v>
       </c>
@@ -4937,7 +4935,7 @@
       <c r="BF22" s="14"/>
       <c r="BG22" s="14"/>
     </row>
-    <row r="23" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>140214</v>
       </c>
@@ -5074,7 +5072,7 @@
       <c r="BG23" s="14"/>
       <c r="BH23" s="14"/>
     </row>
-    <row r="24" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>139</v>
       </c>
@@ -5213,7 +5211,7 @@
       <c r="BF24" s="14"/>
       <c r="BG24" s="14"/>
     </row>
-    <row r="25" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>200314</v>
       </c>
@@ -5353,7 +5351,7 @@
       <c r="BG25" s="14"/>
       <c r="BH25" s="14"/>
     </row>
-    <row r="26" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>189</v>
       </c>
@@ -5495,7 +5493,7 @@
       <c r="BI26" s="14"/>
       <c r="BJ26" s="14"/>
     </row>
-    <row r="27" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>137</v>
       </c>
@@ -5634,7 +5632,7 @@
       <c r="BF27" s="14"/>
       <c r="BG27" s="14"/>
     </row>
-    <row r="28" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>240714</v>
       </c>
@@ -5810,7 +5808,7 @@
       <c r="DN28" s="19"/>
       <c r="DO28" s="19"/>
     </row>
-    <row r="29" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>250714</v>
       </c>
@@ -5946,7 +5944,7 @@
       <c r="BF29" s="14"/>
       <c r="BG29" s="14"/>
     </row>
-    <row r="30" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>190115</v>
       </c>
@@ -6082,7 +6080,7 @@
       <c r="BF30" s="14"/>
       <c r="BG30" s="14"/>
     </row>
-    <row r="31" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>125</v>
       </c>
@@ -6221,7 +6219,7 @@
       <c r="BF31" s="14"/>
       <c r="BG31" s="14"/>
     </row>
-    <row r="32" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>128</v>
       </c>
@@ -6360,7 +6358,7 @@
       <c r="BF32" s="14"/>
       <c r="BG32" s="14"/>
     </row>
-    <row r="33" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>48</v>
       </c>
@@ -6597,7 +6595,7 @@
       <c r="FE33" s="1"/>
       <c r="FF33" s="1"/>
     </row>
-    <row r="34" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
         <v>50</v>
       </c>
@@ -6834,7 +6832,7 @@
       <c r="FE34" s="1"/>
       <c r="FF34" s="1"/>
     </row>
-    <row r="35" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>76</v>
       </c>
@@ -7186,7 +7184,7 @@
       <c r="FE35" s="1"/>
       <c r="FF35" s="1"/>
     </row>
-    <row r="36" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A36" s="23" t="s">
         <v>51</v>
       </c>
@@ -7423,7 +7421,7 @@
       <c r="FE36" s="1"/>
       <c r="FF36" s="1"/>
     </row>
-    <row r="37" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>53</v>
       </c>
@@ -7536,7 +7534,7 @@
         <v>0.54522995305993338</v>
       </c>
     </row>
-    <row r="38" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>54</v>
       </c>
@@ -7649,7 +7647,7 @@
         <v>0.38102486428002957</v>
       </c>
     </row>
-    <row r="39" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>55</v>
       </c>
@@ -7762,7 +7760,7 @@
         <v>0.4281542264956556</v>
       </c>
     </row>
-    <row r="40" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A40" s="53" t="s">
         <v>95</v>
       </c>
@@ -7772,7 +7770,7 @@
       <c r="C40" s="53"/>
       <c r="D40" s="53"/>
       <c r="E40" s="53"/>
-      <c r="F40" s="77" t="s">
+      <c r="F40" s="76" t="s">
         <v>35</v>
       </c>
       <c r="G40" s="1">
@@ -8115,7 +8113,7 @@
       <c r="FE40" s="1"/>
       <c r="FF40" s="1"/>
     </row>
-    <row r="41" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A41" s="53" t="s">
         <v>95</v>
       </c>
@@ -8125,7 +8123,7 @@
       <c r="C41" s="53"/>
       <c r="D41" s="53"/>
       <c r="E41" s="53"/>
-      <c r="F41" s="77" t="s">
+      <c r="F41" s="76" t="s">
         <v>35</v>
       </c>
       <c r="G41" s="1">
@@ -8468,7 +8466,7 @@
       <c r="FE41" s="1"/>
       <c r="FF41" s="1"/>
     </row>
-    <row r="42" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A42" s="53" t="s">
         <v>98</v>
       </c>
@@ -8703,7 +8701,7 @@
       <c r="FE42" s="1"/>
       <c r="FF42" s="1"/>
     </row>
-    <row r="43" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A43" s="53" t="s">
         <v>99</v>
       </c>
@@ -8938,7 +8936,7 @@
       <c r="FE43" s="1"/>
       <c r="FF43" s="1"/>
     </row>
-    <row r="44" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A44" s="53" t="s">
         <v>117</v>
       </c>
@@ -9290,7 +9288,7 @@
       <c r="FE44" s="1"/>
       <c r="FF44" s="1"/>
     </row>
-    <row r="45" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A45" s="20" t="s">
         <v>109</v>
       </c>
@@ -9534,7 +9532,7 @@
       <c r="FE45" s="1"/>
       <c r="FF45" s="1"/>
     </row>
-    <row r="46" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A46" s="20" t="s">
         <v>109</v>
       </c>
@@ -9778,7 +9776,7 @@
       <c r="FE46" s="1"/>
       <c r="FF46" s="1"/>
     </row>
-    <row r="47" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>110</v>
       </c>
@@ -9903,7 +9901,7 @@
         <v>0.62797058754652535</v>
       </c>
     </row>
-    <row r="48" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A48" s="59" t="s">
         <v>119</v>
       </c>
@@ -10080,7 +10078,7 @@
       <c r="EH48" s="12"/>
       <c r="EI48" s="12"/>
     </row>
-    <row r="49" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>50717</v>
       </c>
@@ -10257,7 +10255,7 @@
       <c r="EI49" s="12"/>
       <c r="EJ49" s="12"/>
     </row>
-    <row r="50" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>231017</v>
       </c>
@@ -10404,7 +10402,7 @@
       <c r="DW50" s="12"/>
       <c r="DX50" s="12"/>
     </row>
-    <row r="51" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A51" s="60" t="s">
         <v>113</v>
       </c>
@@ -10584,7 +10582,7 @@
       <c r="EI51" s="12"/>
       <c r="EJ51" s="12"/>
     </row>
-    <row r="52" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>200318</v>
       </c>
@@ -10756,7 +10754,7 @@
       <c r="EG52" s="12"/>
       <c r="EH52" s="12"/>
     </row>
-    <row r="53" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A53" s="60" t="s">
         <v>134</v>
       </c>
@@ -10931,7 +10929,7 @@
       <c r="EG53" s="12"/>
       <c r="EH53" s="12"/>
     </row>
-    <row r="54" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A54" s="60">
         <v>190816</v>
       </c>
@@ -11106,7 +11104,7 @@
       <c r="EG54" s="12"/>
       <c r="EH54" s="12"/>
     </row>
-    <row r="55" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A55" s="60" t="s">
         <v>132</v>
       </c>
@@ -11316,7 +11314,7 @@
       <c r="EU55" s="12"/>
       <c r="EV55" s="12"/>
     </row>
-    <row r="56" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A56" s="59" t="s">
         <v>118</v>
       </c>
@@ -11496,7 +11494,7 @@
       <c r="EI56" s="12"/>
       <c r="EJ56" s="12"/>
     </row>
-    <row r="57" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A57" s="59" t="s">
         <v>120</v>
       </c>
@@ -11711,7 +11709,7 @@
       <c r="EV57" s="12"/>
       <c r="EW57" s="12"/>
     </row>
-    <row r="58" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A58" s="59" t="s">
         <v>122</v>
       </c>
@@ -11919,7 +11917,7 @@
       <c r="ES58" s="12"/>
       <c r="ET58" s="12"/>
     </row>
-    <row r="59" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A59" s="28" t="s">
         <v>79</v>
       </c>
@@ -12020,7 +12018,7 @@
       <c r="BS59" s="14"/>
       <c r="BT59" s="14"/>
     </row>
-    <row r="60" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A60" s="28" t="s">
         <v>79</v>
       </c>
@@ -12167,7 +12165,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="61" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A61" s="28" t="s">
         <v>79</v>
       </c>
@@ -12314,12 +12312,12 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="62" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>108</v>
@@ -12603,7 +12601,7 @@
         <v>5.3411950742497289</v>
       </c>
     </row>
-    <row r="63" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>111</v>
       </c>
@@ -12869,7 +12867,7 @@
         <v>4.5454545454545459</v>
       </c>
     </row>
-    <row r="64" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>72</v>
       </c>
@@ -13021,7 +13019,7 @@
         <v>0.31509596104268095</v>
       </c>
     </row>
-    <row r="65" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>112</v>
       </c>
@@ -13274,7 +13272,7 @@
       <c r="EJ65" s="12"/>
       <c r="EK65" s="12"/>
     </row>
-    <row r="66" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A66" s="28" t="s">
         <v>79</v>
       </c>
@@ -13375,7 +13373,7 @@
       <c r="BS66" s="14"/>
       <c r="BT66" s="14"/>
     </row>
-    <row r="67" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:162" ht="15" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>82</v>
       </c>
@@ -13576,7 +13574,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="68" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A68" s="44" t="s">
         <v>93</v>
       </c>
@@ -13773,7 +13771,7 @@
         <v>0.50290434380454696</v>
       </c>
     </row>
-    <row r="69" spans="1:162" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:162" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>135</v>
       </c>
@@ -13970,7 +13968,7 @@
       <c r="ES69" s="12"/>
       <c r="ET69" s="12"/>
     </row>
-    <row r="70" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>114</v>
       </c>
@@ -14142,7 +14140,7 @@
       <c r="EG70" s="12"/>
       <c r="EH70" s="12"/>
     </row>
-    <row r="71" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A71" s="53" t="s">
         <v>101</v>
       </c>
@@ -14348,12 +14346,12 @@
       <c r="FE71" s="1"/>
       <c r="FF71" s="1"/>
     </row>
-    <row r="72" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F72" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G72" s="4">
         <v>2</v>
@@ -14481,7 +14479,7 @@
       <c r="BF72" s="14"/>
       <c r="BG72" s="14"/>
     </row>
-    <row r="73" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A73" s="53" t="s">
         <v>101</v>
       </c>
@@ -14671,7 +14669,7 @@
       <c r="FE73" s="1"/>
       <c r="FF73" s="1"/>
     </row>
-    <row r="74" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A74" s="16" t="s">
         <v>130</v>
       </c>
@@ -14810,7 +14808,7 @@
       <c r="BF74" s="14"/>
       <c r="BG74" s="14"/>
     </row>
-    <row r="75" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A75" s="16" t="s">
         <v>131</v>
       </c>
@@ -14949,7 +14947,7 @@
       <c r="BF75" s="14"/>
       <c r="BG75" s="14"/>
     </row>
-    <row r="76" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>140214</v>
       </c>
@@ -15086,7 +15084,7 @@
       <c r="BG76" s="14"/>
       <c r="BH76" s="14"/>
     </row>
-    <row r="77" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>11112</v>
       </c>
@@ -15223,7 +15221,7 @@
       <c r="BF77" s="14"/>
       <c r="BG77" s="14"/>
     </row>
-    <row r="78" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A78" s="16" t="s">
         <v>123</v>
       </c>
@@ -15363,7 +15361,7 @@
       <c r="BF78" s="14"/>
       <c r="BG78" s="14"/>
     </row>
-    <row r="79" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>61112</v>
       </c>
@@ -15500,7 +15498,7 @@
       <c r="BF79" s="14"/>
       <c r="BG79" s="14"/>
     </row>
-    <row r="80" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A80" s="16" t="s">
         <v>141</v>
       </c>
@@ -15640,7 +15638,7 @@
       <c r="BF80" s="14"/>
       <c r="BG80" s="14"/>
     </row>
-    <row r="81" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A81" s="16" t="s">
         <v>140</v>
       </c>
@@ -15779,7 +15777,7 @@
       <c r="BF81" s="14"/>
       <c r="BG81" s="14"/>
     </row>
-    <row r="82" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>221013</v>
       </c>
@@ -15916,7 +15914,7 @@
       <c r="BG82" s="14"/>
       <c r="BH82" s="14"/>
     </row>
-    <row r="83" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A83" s="16" t="s">
         <v>138</v>
       </c>
@@ -16055,7 +16053,7 @@
       <c r="BF83" s="14"/>
       <c r="BG83" s="14"/>
     </row>
-    <row r="84" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A84" s="59" t="s">
         <v>119</v>
       </c>
@@ -16205,7 +16203,7 @@
       <c r="DW84" s="12"/>
       <c r="DX84" s="12"/>
     </row>
-    <row r="85" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>40917</v>
       </c>
@@ -16382,7 +16380,7 @@
       <c r="EI85" s="12"/>
       <c r="EJ85" s="12"/>
     </row>
-    <row r="86" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>50717</v>
       </c>
@@ -16556,7 +16554,7 @@
       <c r="EH86" s="12"/>
       <c r="EI86" s="12"/>
     </row>
-    <row r="87" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A87" s="16" t="s">
         <v>121</v>
       </c>
@@ -16738,7 +16736,7 @@
       <c r="EJ87" s="12"/>
       <c r="EK87" s="12"/>
     </row>
-    <row r="88" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>231017</v>
       </c>
@@ -16915,7 +16913,7 @@
       <c r="EI88" s="12"/>
       <c r="EJ88" s="12"/>
     </row>
-    <row r="89" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A89" s="60">
         <v>270118</v>
       </c>
@@ -17092,7 +17090,7 @@
       <c r="EH89" s="12"/>
       <c r="EI89" s="12"/>
     </row>
-    <row r="90" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>200318</v>
       </c>
@@ -17261,7 +17259,7 @@
       <c r="EF90" s="12"/>
       <c r="EG90" s="12"/>
     </row>
-    <row r="91" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="60">
         <v>190816</v>
       </c>
@@ -17505,7 +17503,7 @@
       <c r="FE91" s="4"/>
       <c r="FF91" s="4"/>
     </row>
-    <row r="92" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A92" s="60" t="s">
         <v>132</v>
       </c>
@@ -17682,7 +17680,7 @@
       <c r="EH92" s="12"/>
       <c r="EI92" s="12"/>
     </row>
-    <row r="93" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A93" s="59" t="s">
         <v>118</v>
       </c>
@@ -17859,7 +17857,7 @@
       <c r="EH93" s="12"/>
       <c r="EI93" s="12"/>
     </row>
-    <row r="94" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A94" s="59" t="s">
         <v>120</v>
       </c>
@@ -18036,7 +18034,7 @@
       <c r="EH94" s="12"/>
       <c r="EI94" s="12"/>
     </row>
-    <row r="95" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A95" s="59" t="s">
         <v>122</v>
       </c>
@@ -18241,7 +18239,7 @@
       <c r="ES95" s="12"/>
       <c r="ET95" s="12"/>
     </row>
-    <row r="96" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A96" s="16" t="s">
         <v>133</v>
       </c>
@@ -18471,7 +18469,7 @@
       <c r="FC96" s="12"/>
       <c r="FD96" s="12"/>
     </row>
-    <row r="97" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="16" t="s">
         <v>188</v>
       </c>
@@ -18715,7 +18713,7 @@
       <c r="FE97" s="4"/>
       <c r="FF97" s="4"/>
     </row>
-    <row r="98" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:162" ht="15" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>82</v>
       </c>
@@ -18912,7 +18910,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="99" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A99" s="53" t="s">
         <v>101</v>
       </c>
@@ -19122,7 +19120,7 @@
       <c r="FE99" s="1"/>
       <c r="FF99" s="1"/>
     </row>
-    <row r="100" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A100" s="16" t="s">
         <v>149</v>
       </c>
@@ -19261,7 +19259,7 @@
       <c r="BF100" s="14"/>
       <c r="BG100" s="14"/>
     </row>
-    <row r="101" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A101" s="16" t="s">
         <v>150</v>
       </c>
@@ -19401,7 +19399,7 @@
       <c r="BF101" s="14"/>
       <c r="BG101" s="14"/>
     </row>
-    <row r="102" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>100912</v>
       </c>
@@ -19537,7 +19535,7 @@
       <c r="BF102" s="14"/>
       <c r="BG102" s="14"/>
     </row>
-    <row r="103" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>11112</v>
       </c>
@@ -19674,7 +19672,7 @@
       <c r="BF103" s="14"/>
       <c r="BG103" s="14"/>
     </row>
-    <row r="104" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A104" s="16" t="s">
         <v>123</v>
       </c>
@@ -19814,7 +19812,7 @@
       <c r="BF104" s="14"/>
       <c r="BG104" s="14"/>
     </row>
-    <row r="105" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>61112</v>
       </c>
@@ -19951,7 +19949,7 @@
       <c r="BF105" s="14"/>
       <c r="BG105" s="14"/>
     </row>
-    <row r="106" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A106" s="16" t="s">
         <v>141</v>
       </c>
@@ -20091,7 +20089,7 @@
       <c r="BF106" s="14"/>
       <c r="BG106" s="14"/>
     </row>
-    <row r="107" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A107" s="16" t="s">
         <v>127</v>
       </c>
@@ -20231,7 +20229,7 @@
       <c r="BF107" s="14"/>
       <c r="BG107" s="14"/>
     </row>
-    <row r="108" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A108" s="16" t="s">
         <v>129</v>
       </c>
@@ -20371,7 +20369,7 @@
       <c r="BF108" s="14"/>
       <c r="BG108" s="14"/>
     </row>
-    <row r="109" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A109" s="16" t="s">
         <v>126</v>
       </c>
@@ -20510,7 +20508,7 @@
       <c r="BF109" s="14"/>
       <c r="BG109" s="14"/>
     </row>
-    <row r="110" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A110" s="16" t="s">
         <v>124</v>
       </c>
@@ -20649,7 +20647,7 @@
       <c r="BF110" s="14"/>
       <c r="BG110" s="14"/>
     </row>
-    <row r="111" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A111" s="16" t="s">
         <v>139</v>
       </c>
@@ -20788,7 +20786,7 @@
       <c r="BF111" s="14"/>
       <c r="BG111" s="14"/>
     </row>
-    <row r="112" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A112" s="16">
         <v>200314</v>
       </c>
@@ -20928,7 +20926,7 @@
       <c r="BG112" s="14"/>
       <c r="BH112" s="14"/>
     </row>
-    <row r="113" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A113" s="16" t="s">
         <v>189</v>
       </c>
@@ -21070,7 +21068,7 @@
       <c r="BI113" s="14"/>
       <c r="BJ113" s="14"/>
     </row>
-    <row r="114" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <v>40917</v>
       </c>
@@ -21314,7 +21312,7 @@
       <c r="FE114" s="4"/>
       <c r="FF114" s="4"/>
     </row>
-    <row r="115" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="16" t="s">
         <v>121</v>
       </c>
@@ -21558,7 +21556,7 @@
       <c r="FE115" s="4"/>
       <c r="FF115" s="4"/>
     </row>
-    <row r="116" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A116" s="16" t="s">
         <v>133</v>
       </c>
@@ -21760,7 +21758,7 @@
       <c r="ER116" s="12"/>
       <c r="ES116" s="12"/>
     </row>
-    <row r="117" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="16" t="s">
         <v>188</v>
       </c>
@@ -22004,7 +22002,7 @@
       <c r="FE117" s="4"/>
       <c r="FF117" s="4"/>
     </row>
-    <row r="118" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="33" t="s">
         <v>62</v>
       </c>
@@ -22246,7 +22244,7 @@
       <c r="FE118" s="4"/>
       <c r="FF118" s="4"/>
     </row>
-    <row r="119" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="28" t="s">
         <v>63</v>
       </c>
@@ -22488,7 +22486,7 @@
       <c r="FE119" s="4"/>
       <c r="FF119" s="4"/>
     </row>
-    <row r="120" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:162" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="28" t="s">
         <v>64</v>
       </c>
@@ -22656,7 +22654,7 @@
       <c r="DK120" s="71"/>
       <c r="DN120" s="71"/>
     </row>
-    <row r="121" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>135</v>
       </c>
@@ -22794,7 +22792,7 @@
       <c r="DV121" s="12"/>
       <c r="DW121" s="12"/>
     </row>
-    <row r="122" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>114</v>
       </c>
@@ -22968,7 +22966,7 @@
       <c r="EN122" s="12"/>
       <c r="EO122" s="12"/>
     </row>
-    <row r="123" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <v>100415</v>
       </c>
@@ -23104,7 +23102,7 @@
       <c r="BF123" s="14"/>
       <c r="BG123" s="14"/>
     </row>
-    <row r="124" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
         <v>220115</v>
       </c>
@@ -23240,7 +23238,7 @@
       <c r="BF124" s="14"/>
       <c r="BG124" s="14"/>
     </row>
-    <row r="125" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A125" s="6">
         <v>230115</v>
       </c>
@@ -23376,7 +23374,7 @@
       <c r="BF125" s="14"/>
       <c r="BG125" s="14"/>
     </row>
-    <row r="126" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A126" s="16" t="s">
         <v>149</v>
       </c>
@@ -23515,7 +23513,7 @@
       <c r="BF126" s="14"/>
       <c r="BG126" s="14"/>
     </row>
-    <row r="127" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A127" s="16" t="s">
         <v>150</v>
       </c>
@@ -23655,7 +23653,7 @@
       <c r="BF127" s="14"/>
       <c r="BG127" s="14"/>
     </row>
-    <row r="128" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A128" s="6">
         <v>100912</v>
       </c>
@@ -23791,7 +23789,7 @@
       <c r="BF128" s="14"/>
       <c r="BG128" s="14"/>
     </row>
-    <row r="129" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A129" s="16" t="s">
         <v>124</v>
       </c>
@@ -23931,7 +23929,7 @@
       <c r="BF129" s="14"/>
       <c r="BG129" s="14"/>
     </row>
-    <row r="130" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A130" s="16" t="s">
         <v>140</v>
       </c>
@@ -24070,7 +24068,7 @@
       <c r="BF130" s="14"/>
       <c r="BG130" s="14"/>
     </row>
-    <row r="131" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A131" s="6">
         <v>221013</v>
       </c>
@@ -24207,7 +24205,7 @@
       <c r="BG131" s="14"/>
       <c r="BH131" s="14"/>
     </row>
-    <row r="132" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A132" s="16" t="s">
         <v>138</v>
       </c>
@@ -24346,7 +24344,7 @@
       <c r="BF132" s="14"/>
       <c r="BG132" s="14"/>
     </row>
-    <row r="133" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A133" s="16" t="s">
         <v>137</v>
       </c>
@@ -24485,7 +24483,7 @@
       <c r="BF133" s="14"/>
       <c r="BG133" s="14"/>
     </row>
-    <row r="134" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A134" s="6">
         <v>240714</v>
       </c>
@@ -24621,7 +24619,7 @@
       <c r="BF134" s="14"/>
       <c r="BG134" s="14"/>
     </row>
-    <row r="135" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A135" s="6">
         <v>250714</v>
       </c>
@@ -24757,7 +24755,7 @@
       <c r="BF135" s="14"/>
       <c r="BG135" s="14"/>
     </row>
-    <row r="136" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A136" s="6">
         <v>190115</v>
       </c>
@@ -24893,7 +24891,7 @@
       <c r="BF136" s="14"/>
       <c r="BG136" s="14"/>
     </row>
-    <row r="137" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A137" s="16" t="s">
         <v>125</v>
       </c>
@@ -25032,7 +25030,7 @@
       <c r="BF137" s="14"/>
       <c r="BG137" s="14"/>
     </row>
-    <row r="138" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A138" s="16" t="s">
         <v>128</v>
       </c>
@@ -25171,7 +25169,7 @@
       <c r="BF138" s="14"/>
       <c r="BG138" s="14"/>
     </row>
-    <row r="139" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A139" s="53" t="s">
         <v>101</v>
       </c>
@@ -25371,7 +25369,7 @@
       <c r="FE139" s="1"/>
       <c r="FF139" s="1"/>
     </row>
-    <row r="140" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A140" s="53" t="s">
         <v>101</v>
       </c>
@@ -25567,7 +25565,7 @@
       <c r="FE140" s="1"/>
       <c r="FF140" s="1"/>
     </row>
-    <row r="141" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>72</v>
       </c>
@@ -25716,7 +25714,7 @@
         <v>3.115384704779756</v>
       </c>
     </row>
-    <row r="142" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A142" s="53" t="s">
         <v>95</v>
       </c>
@@ -25724,7 +25722,7 @@
       <c r="C142" s="53"/>
       <c r="D142" s="53"/>
       <c r="E142" s="53"/>
-      <c r="F142" s="77" t="s">
+      <c r="F142" s="76" t="s">
         <v>147</v>
       </c>
       <c r="G142" s="32">
@@ -26067,7 +26065,7 @@
       <c r="FE142" s="1"/>
       <c r="FF142" s="1"/>
     </row>
-    <row r="143" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A143" s="53" t="s">
         <v>101</v>
       </c>
@@ -26257,7 +26255,7 @@
       <c r="FE143" s="1"/>
       <c r="FF143" s="1"/>
     </row>
-    <row r="144" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>70</v>
       </c>
@@ -26390,7 +26388,7 @@
       <c r="BF144" s="14"/>
       <c r="BG144" s="14"/>
     </row>
-    <row r="145" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A145" s="20" t="s">
         <v>57</v>
       </c>
@@ -26442,12 +26440,12 @@
       <c r="AC145" s="22"/>
       <c r="AD145" s="32"/>
       <c r="AE145" s="72" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF145" s="22"/>
       <c r="AG145" s="32"/>
       <c r="AH145" s="72" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AI145" s="22"/>
       <c r="AJ145" s="32"/>
@@ -26465,7 +26463,7 @@
       <c r="AT145" s="34"/>
       <c r="AU145" s="34"/>
       <c r="AV145" s="73" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AW145" s="34"/>
       <c r="AX145" s="34"/>
@@ -26584,7 +26582,7 @@
       <c r="FE145" s="1"/>
       <c r="FF145" s="1"/>
     </row>
-    <row r="146" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
         <v>57</v>
       </c>
@@ -26692,7 +26690,7 @@
       <c r="DO146" s="34"/>
       <c r="DP146" s="34"/>
     </row>
-    <row r="147" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A147" s="6">
         <v>100415</v>
       </c>
@@ -26828,7 +26826,7 @@
       <c r="BF147" s="14"/>
       <c r="BG147" s="14"/>
     </row>
-    <row r="148" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A148" s="6">
         <v>220115</v>
       </c>
@@ -26964,7 +26962,7 @@
       <c r="BF148" s="14"/>
       <c r="BG148" s="14"/>
     </row>
-    <row r="149" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A149" s="6">
         <v>230115</v>
       </c>
@@ -27162,7 +27160,7 @@
       <c r="DO149" s="19"/>
       <c r="DP149" s="19"/>
     </row>
-    <row r="150" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A150" s="16" t="s">
         <v>149</v>
       </c>
@@ -27301,7 +27299,7 @@
       <c r="BF150" s="14"/>
       <c r="BG150" s="14"/>
     </row>
-    <row r="151" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A151" s="16" t="s">
         <v>150</v>
       </c>
@@ -27441,7 +27439,7 @@
       <c r="BF151" s="14"/>
       <c r="BG151" s="14"/>
     </row>
-    <row r="152" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A152" s="6">
         <v>100912</v>
       </c>
@@ -27577,7 +27575,7 @@
       <c r="BF152" s="14"/>
       <c r="BG152" s="14"/>
     </row>
-    <row r="153" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A153" s="6">
         <v>11112</v>
       </c>
@@ -27714,7 +27712,7 @@
       <c r="BF153" s="14"/>
       <c r="BG153" s="14"/>
     </row>
-    <row r="154" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A154" s="16" t="s">
         <v>123</v>
       </c>
@@ -27854,7 +27852,7 @@
       <c r="BF154" s="14"/>
       <c r="BG154" s="14"/>
     </row>
-    <row r="155" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A155" s="6">
         <v>61112</v>
       </c>
@@ -27991,7 +27989,7 @@
       <c r="BF155" s="14"/>
       <c r="BG155" s="14"/>
     </row>
-    <row r="156" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A156" s="16" t="s">
         <v>141</v>
       </c>
@@ -28131,7 +28129,7 @@
       <c r="BF156" s="14"/>
       <c r="BG156" s="14"/>
     </row>
-    <row r="157" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A157" s="6">
         <v>40413</v>
       </c>
@@ -28268,7 +28266,7 @@
       <c r="BF157" s="14"/>
       <c r="BG157" s="14"/>
     </row>
-    <row r="158" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A158" s="16" t="s">
         <v>127</v>
       </c>
@@ -28408,7 +28406,7 @@
       <c r="BF158" s="14"/>
       <c r="BG158" s="14"/>
     </row>
-    <row r="159" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A159" s="16" t="s">
         <v>129</v>
       </c>
@@ -28548,7 +28546,7 @@
       <c r="BF159" s="14"/>
       <c r="BG159" s="14"/>
     </row>
-    <row r="160" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A160" s="16" t="s">
         <v>126</v>
       </c>
@@ -28687,7 +28685,7 @@
       <c r="BF160" s="14"/>
       <c r="BG160" s="14"/>
     </row>
-    <row r="161" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A161" s="16" t="s">
         <v>124</v>
       </c>
@@ -28826,7 +28824,7 @@
       <c r="BF161" s="14"/>
       <c r="BG161" s="14"/>
     </row>
-    <row r="162" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A162" s="16" t="s">
         <v>140</v>
       </c>
@@ -28965,7 +28963,7 @@
       <c r="BF162" s="14"/>
       <c r="BG162" s="14"/>
     </row>
-    <row r="163" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A163" s="6">
         <v>221013</v>
       </c>
@@ -29102,7 +29100,7 @@
       <c r="BG163" s="14"/>
       <c r="BH163" s="14"/>
     </row>
-    <row r="164" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A164" s="16" t="s">
         <v>138</v>
       </c>
@@ -29241,7 +29239,7 @@
       <c r="BF164" s="14"/>
       <c r="BG164" s="14"/>
     </row>
-    <row r="165" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A165" s="16" t="s">
         <v>130</v>
       </c>
@@ -29380,7 +29378,7 @@
       <c r="BF165" s="14"/>
       <c r="BG165" s="14"/>
     </row>
-    <row r="166" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="16" t="s">
         <v>131</v>
       </c>
@@ -29624,7 +29622,7 @@
       <c r="FE166" s="4"/>
       <c r="FF166" s="4"/>
     </row>
-    <row r="167" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6">
         <v>140214</v>
       </c>
@@ -29868,7 +29866,7 @@
       <c r="FE167" s="4"/>
       <c r="FF167" s="4"/>
     </row>
-    <row r="168" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="16" t="s">
         <v>139</v>
       </c>
@@ -30112,7 +30110,7 @@
       <c r="FE168" s="4"/>
       <c r="FF168" s="4"/>
     </row>
-    <row r="169" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="16">
         <v>200314</v>
       </c>
@@ -30356,7 +30354,7 @@
       <c r="FE169" s="4"/>
       <c r="FF169" s="4"/>
     </row>
-    <row r="170" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="16" t="s">
         <v>189</v>
       </c>
@@ -30600,7 +30598,7 @@
       <c r="FE170" s="4"/>
       <c r="FF170" s="4"/>
     </row>
-    <row r="171" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="16" t="s">
         <v>137</v>
       </c>
@@ -30844,7 +30842,7 @@
       <c r="FE171" s="4"/>
       <c r="FF171" s="4"/>
     </row>
-    <row r="172" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="6">
         <v>240714</v>
       </c>
@@ -31088,7 +31086,7 @@
       <c r="FE172" s="4"/>
       <c r="FF172" s="4"/>
     </row>
-    <row r="173" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="6">
         <v>250714</v>
       </c>
@@ -31332,7 +31330,7 @@
       <c r="FE173" s="4"/>
       <c r="FF173" s="4"/>
     </row>
-    <row r="174" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="6">
         <v>190115</v>
       </c>
@@ -31576,7 +31574,7 @@
       <c r="FE174" s="4"/>
       <c r="FF174" s="4"/>
     </row>
-    <row r="175" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="16" t="s">
         <v>125</v>
       </c>
@@ -31820,7 +31818,7 @@
       <c r="FE175" s="4"/>
       <c r="FF175" s="4"/>
     </row>
-    <row r="176" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:162" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="16" t="s">
         <v>128</v>
       </c>
@@ -32064,7 +32062,7 @@
       <c r="FE176" s="4"/>
       <c r="FF176" s="4"/>
     </row>
-    <row r="177" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A177" s="59" t="s">
         <v>119</v>
       </c>
@@ -32214,7 +32212,7 @@
       <c r="DW177" s="12"/>
       <c r="DX177" s="12"/>
     </row>
-    <row r="178" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A178" s="6">
         <v>40917</v>
       </c>
@@ -32391,7 +32389,7 @@
       <c r="EI178" s="12"/>
       <c r="EJ178" s="12"/>
     </row>
-    <row r="179" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A179" s="6">
         <v>50717</v>
       </c>
@@ -32568,7 +32566,7 @@
       <c r="EI179" s="12"/>
       <c r="EJ179" s="12"/>
     </row>
-    <row r="180" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A180" s="16" t="s">
         <v>121</v>
       </c>
@@ -32718,7 +32716,7 @@
       <c r="DW180" s="12"/>
       <c r="DX180" s="12"/>
     </row>
-    <row r="181" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A181" s="60">
         <v>270118</v>
       </c>
@@ -32868,7 +32866,7 @@
       <c r="DW181" s="12"/>
       <c r="DX181" s="12"/>
     </row>
-    <row r="182" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A182" s="6">
         <v>200318</v>
       </c>
@@ -33010,7 +33008,7 @@
       <c r="DU182" s="12"/>
       <c r="DV182" s="12"/>
     </row>
-    <row r="183" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A183" s="60" t="s">
         <v>134</v>
       </c>
@@ -33185,7 +33183,7 @@
       <c r="EG183" s="12"/>
       <c r="EH183" s="12"/>
     </row>
-    <row r="184" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A184" s="60">
         <v>190816</v>
       </c>
@@ -33335,7 +33333,7 @@
       <c r="DW184" s="12"/>
       <c r="DX184" s="12"/>
     </row>
-    <row r="185" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A185" s="60" t="s">
         <v>132</v>
       </c>
@@ -33540,7 +33538,7 @@
       <c r="ES185" s="12"/>
       <c r="ET185" s="12"/>
     </row>
-    <row r="186" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A186" s="59" t="s">
         <v>118</v>
       </c>
@@ -33720,7 +33718,7 @@
       <c r="EI186" s="12"/>
       <c r="EJ186" s="12"/>
     </row>
-    <row r="187" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A187" s="59" t="s">
         <v>120</v>
       </c>
@@ -33955,7 +33953,7 @@
       <c r="FE187" s="12"/>
       <c r="FF187" s="12"/>
     </row>
-    <row r="188" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A188" s="59" t="s">
         <v>122</v>
       </c>
@@ -34160,7 +34158,7 @@
       <c r="ES188" s="12"/>
       <c r="ET188" s="12"/>
     </row>
-    <row r="189" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A189" s="16" t="s">
         <v>133</v>
       </c>
@@ -34332,7 +34330,7 @@
       <c r="EF189" s="12"/>
       <c r="EG189" s="12"/>
     </row>
-    <row r="190" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A190" s="16" t="s">
         <v>188</v>
       </c>
@@ -34512,7 +34510,7 @@
       <c r="EI190" s="12"/>
       <c r="EJ190" s="12"/>
     </row>
-    <row r="191" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>57</v>
       </c>
@@ -34566,7 +34564,7 @@
       <c r="AO191" s="2"/>
       <c r="AP191" s="2"/>
     </row>
-    <row r="192" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
         <v>57</v>
       </c>
@@ -34596,7 +34594,7 @@
       <c r="AO192" s="2"/>
       <c r="AP192" s="2"/>
     </row>
-    <row r="193" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A193" s="6">
         <v>11112</v>
       </c>
@@ -34733,7 +34731,7 @@
       <c r="BF193" s="14"/>
       <c r="BG193" s="14"/>
     </row>
-    <row r="194" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A194" s="16" t="s">
         <v>123</v>
       </c>
@@ -34873,7 +34871,7 @@
       <c r="BF194" s="14"/>
       <c r="BG194" s="14"/>
     </row>
-    <row r="195" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A195" s="6">
         <v>61112</v>
       </c>
@@ -35010,7 +35008,7 @@
       <c r="BF195" s="14"/>
       <c r="BG195" s="14"/>
     </row>
-    <row r="196" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A196" s="16" t="s">
         <v>141</v>
       </c>
@@ -35150,7 +35148,7 @@
       <c r="BF196" s="14"/>
       <c r="BG196" s="14"/>
     </row>
-    <row r="197" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A197" s="6">
         <v>40413</v>
       </c>
@@ -35287,7 +35285,7 @@
       <c r="BF197" s="14"/>
       <c r="BG197" s="14"/>
     </row>
-    <row r="198" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A198" s="16" t="s">
         <v>127</v>
       </c>
@@ -35427,7 +35425,7 @@
       <c r="BF198" s="14"/>
       <c r="BG198" s="14"/>
     </row>
-    <row r="199" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A199" s="16" t="s">
         <v>129</v>
       </c>
@@ -35567,7 +35565,7 @@
       <c r="BF199" s="14"/>
       <c r="BG199" s="14"/>
     </row>
-    <row r="200" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A200" s="16" t="s">
         <v>126</v>
       </c>
@@ -35706,7 +35704,7 @@
       <c r="BF200" s="14"/>
       <c r="BG200" s="14"/>
     </row>
-    <row r="201" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A201" s="16" t="s">
         <v>124</v>
       </c>
@@ -35845,12 +35843,12 @@
       <c r="BF201" s="14"/>
       <c r="BG201" s="14"/>
     </row>
-    <row r="202" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G202" s="4" t="s">
         <v>80</v>
@@ -35981,7 +35979,7 @@
       <c r="DO202" s="11"/>
       <c r="DP202" s="9"/>
     </row>
-    <row r="203" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A203" s="33" t="s">
         <v>62</v>
       </c>
@@ -36133,7 +36131,7 @@
       <c r="BU203" s="14"/>
       <c r="BV203" s="14"/>
     </row>
-    <row r="204" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A204" s="28" t="s">
         <v>63</v>
       </c>
@@ -36286,7 +36284,7 @@
       <c r="BU204" s="14"/>
       <c r="BV204" s="14"/>
     </row>
-    <row r="205" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A205" s="28" t="s">
         <v>64</v>
       </c>
@@ -36434,7 +36432,7 @@
       <c r="BU205" s="14"/>
       <c r="BV205" s="14"/>
     </row>
-    <row r="206" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A206" s="35" t="s">
         <v>42</v>
       </c>
@@ -36579,7 +36577,7 @@
       <c r="BS206" s="14"/>
       <c r="BT206" s="14"/>
     </row>
-    <row r="207" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
         <v>73</v>
       </c>
@@ -36629,7 +36627,7 @@
       </c>
       <c r="AJ207" s="2"/>
       <c r="AK207" s="74" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AM207" s="2"/>
       <c r="AN207" s="2"/>
@@ -36715,7 +36713,7 @@
       <c r="DO207" s="11"/>
       <c r="DP207" s="9"/>
     </row>
-    <row r="208" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
         <v>45</v>
       </c>
@@ -36732,7 +36730,7 @@
         <v>0.48528183445247164</v>
       </c>
       <c r="J208" s="2">
-        <f t="shared" ref="J208:J215" si="79">I208*100/H208</f>
+        <f t="shared" ref="J208:J214" si="79">I208*100/H208</f>
         <v>0.63059247640006022</v>
       </c>
       <c r="K208" s="7">
@@ -36742,7 +36740,7 @@
         <v>1.373721627954911E-2</v>
       </c>
       <c r="M208" s="2">
-        <f t="shared" ref="M208:M215" si="80">L208*100/K208</f>
+        <f t="shared" ref="M208:M214" si="80">L208*100/K208</f>
         <v>19.737379711995839</v>
       </c>
       <c r="N208" s="7">
@@ -36752,7 +36750,7 @@
         <v>7.1715323067174583E-2</v>
       </c>
       <c r="P208" s="2">
-        <f t="shared" ref="P208:P215" si="81">O208*100/N208</f>
+        <f t="shared" ref="P208:P214" si="81">O208*100/N208</f>
         <v>0.58928593733246493</v>
       </c>
       <c r="Q208" s="2"/>
@@ -36764,7 +36762,7 @@
         <v>8.2501143129994819E-2</v>
       </c>
       <c r="U208" s="2">
-        <f t="shared" ref="U208:U215" si="82">T208*100/S208</f>
+        <f t="shared" ref="U208:U214" si="82">T208*100/S208</f>
         <v>7.6193263604005415</v>
       </c>
       <c r="V208" s="7">
@@ -36784,7 +36782,7 @@
         <v>1.7415191325072743E-2</v>
       </c>
       <c r="AA208" s="2">
-        <f t="shared" ref="AA208:AA215" si="83">Z208*100/Y208</f>
+        <f t="shared" ref="AA208:AA214" si="83">Z208*100/Y208</f>
         <v>60.469414323169246</v>
       </c>
       <c r="AB208" s="7">
@@ -36794,7 +36792,7 @@
         <v>1.934532424613658E-2</v>
       </c>
       <c r="AD208" s="2">
-        <f t="shared" ref="AD208:AD215" si="84">AC208*100/AB208</f>
+        <f t="shared" ref="AD208:AD214" si="84">AC208*100/AB208</f>
         <v>4.2677961305458982</v>
       </c>
       <c r="AE208" s="7">
@@ -36804,7 +36802,7 @@
         <v>4.0835576893488365E-2</v>
       </c>
       <c r="AG208" s="2">
-        <f t="shared" ref="AG208:AG215" si="85">AF208*100/AE208</f>
+        <f t="shared" ref="AG208:AG214" si="85">AF208*100/AE208</f>
         <v>1.1609868403930634</v>
       </c>
       <c r="AH208" s="7">
@@ -36814,7 +36812,7 @@
         <v>2.3615763069428718E-2</v>
       </c>
       <c r="AJ208" s="2">
-        <f t="shared" ref="AJ208:AJ215" si="86">AI208*100/AH208</f>
+        <f t="shared" ref="AJ208:AJ214" si="86">AI208*100/AH208</f>
         <v>0.47895565897574111</v>
       </c>
       <c r="AM208" s="2"/>
@@ -36840,7 +36838,7 @@
       <c r="BD208" s="14"/>
       <c r="BE208" s="14"/>
     </row>
-    <row r="209" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A209" s="20" t="s">
         <v>75</v>
       </c>
@@ -37077,7 +37075,7 @@
       <c r="FE209" s="1"/>
       <c r="FF209" s="1"/>
     </row>
-    <row r="210" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A210" s="20" t="s">
         <v>46</v>
       </c>
@@ -37314,7 +37312,7 @@
       <c r="FE210" s="1"/>
       <c r="FF210" s="1"/>
     </row>
-    <row r="211" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A211" s="20" t="s">
         <v>47</v>
       </c>
@@ -37550,7 +37548,7 @@
       <c r="FE211" s="1"/>
       <c r="FF211" s="1"/>
     </row>
-    <row r="212" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A212" s="20" t="s">
         <v>48</v>
       </c>
@@ -37787,7 +37785,7 @@
       <c r="FE212" s="1"/>
       <c r="FF212" s="1"/>
     </row>
-    <row r="213" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
         <v>136</v>
       </c>
@@ -37912,749 +37910,449 @@
       <c r="BD213" s="14"/>
       <c r="BE213" s="14"/>
     </row>
-    <row r="214" spans="1:162" x14ac:dyDescent="0.25">
-      <c r="A214" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="B214" s="1"/>
-      <c r="C214" s="76"/>
-      <c r="D214" s="76"/>
-      <c r="E214" s="76"/>
-      <c r="F214" s="1" t="s">
+    <row r="214" spans="1:162" x14ac:dyDescent="0.3">
+      <c r="A214" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F214" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="G214" s="1">
-        <v>22</v>
-      </c>
-      <c r="H214" s="21">
-        <v>76.979753863636347</v>
-      </c>
-      <c r="I214" s="21">
-        <v>0.54356674099058022</v>
+      <c r="G214" s="4">
+        <v>24</v>
+      </c>
+      <c r="H214" s="24">
+        <v>76.929310791666666</v>
+      </c>
+      <c r="I214" s="24">
+        <v>0.55188828743631513</v>
       </c>
       <c r="J214" s="2">
         <f t="shared" si="79"/>
-        <v>0.70611649649265773</v>
-      </c>
-      <c r="K214" s="21">
-        <v>7.2818181818181837E-2</v>
-      </c>
-      <c r="L214" s="21">
-        <v>1.4562300850504447E-2</v>
+        <v>0.71739663563461709</v>
+      </c>
+      <c r="K214" s="24">
+        <v>7.2416666666666657E-2</v>
+      </c>
+      <c r="L214" s="24">
+        <v>1.0421201911265559E-2</v>
       </c>
       <c r="M214" s="2">
         <f t="shared" si="80"/>
-        <v>19.99816596199112</v>
-      </c>
-      <c r="N214" s="21">
-        <v>12.172070181818183</v>
-      </c>
-      <c r="O214" s="21">
-        <v>0.11630293407078933</v>
+        <v>14.390612535694673</v>
+      </c>
+      <c r="N214" s="24">
+        <v>12.170573624999998</v>
+      </c>
+      <c r="O214" s="24">
+        <v>9.4296883631392631E-2</v>
       </c>
       <c r="P214" s="2">
         <f t="shared" si="81"/>
-        <v>0.95549016998369596</v>
+        <v>0.77479407739413475</v>
       </c>
       <c r="Q214" s="2"/>
       <c r="R214" s="2"/>
-      <c r="S214" s="21">
-        <v>1.0803669090909092</v>
-      </c>
-      <c r="T214" s="21">
-        <v>9.5284412957511708E-2</v>
+      <c r="S214" s="24">
+        <v>1.0796426666666668</v>
+      </c>
+      <c r="T214" s="24">
+        <v>4.5006372614153863E-2</v>
       </c>
       <c r="U214" s="2">
         <f t="shared" si="82"/>
-        <v>8.819634529318396</v>
-      </c>
-      <c r="V214" s="21">
-        <v>2.9636363636363641E-2</v>
-      </c>
-      <c r="W214" s="21">
-        <v>1.1922549481850998E-2</v>
+        <v>4.1686359759297389</v>
+      </c>
+      <c r="V214" s="24">
+        <v>3.2208333333333346E-2</v>
+      </c>
+      <c r="W214" s="24">
+        <v>1.0051948401512306E-2</v>
       </c>
       <c r="X214" s="2">
         <f>W214*100/V214</f>
-        <v>40.229461441828512</v>
-      </c>
-      <c r="Y214" s="21">
-        <v>3.5772727272727282E-2</v>
-      </c>
-      <c r="Z214" s="21">
-        <v>2.0433240467858133E-2</v>
+        <v>31.209154157347378</v>
+      </c>
+      <c r="Y214" s="24">
+        <v>2.4458333333333342E-2</v>
+      </c>
+      <c r="Z214" s="24">
+        <v>1.8516688516664857E-2</v>
       </c>
       <c r="AA214" s="2">
         <f t="shared" si="83"/>
-        <v>57.119604865677097</v>
-      </c>
-      <c r="AB214" s="21">
-        <v>0.44990909090909087</v>
-      </c>
-      <c r="AC214" s="21">
-        <v>2.3460014799062869E-2</v>
+        <v>75.707074003399725</v>
+      </c>
+      <c r="AB214" s="24">
+        <v>0.4499445416666667</v>
+      </c>
+      <c r="AC214" s="24">
+        <v>2.5810090781942255E-2</v>
       </c>
       <c r="AD214" s="2">
         <f t="shared" si="84"/>
-        <v>5.214390034142081</v>
-      </c>
-      <c r="AE214" s="21">
-        <v>3.5211845454545458</v>
-      </c>
-      <c r="AF214" s="21">
-        <v>0.1588850598342694</v>
+        <v>5.736282673046226</v>
+      </c>
+      <c r="AE214" s="24">
+        <v>3.521778541666666</v>
+      </c>
+      <c r="AF214" s="24">
+        <v>6.7675877033541734E-2</v>
       </c>
       <c r="AG214" s="2">
         <f t="shared" si="85"/>
-        <v>4.5122616489775345</v>
-      </c>
-      <c r="AH214" s="21">
-        <v>4.9312984999999987</v>
-      </c>
-      <c r="AI214" s="21">
-        <v>4.5229387840903704E-2</v>
+        <v>1.921639201126895</v>
+      </c>
+      <c r="AH214" s="24">
+        <v>4.9319083749999999</v>
+      </c>
+      <c r="AI214" s="24">
+        <v>4.653453622363618E-2</v>
       </c>
       <c r="AJ214" s="2">
         <f t="shared" si="86"/>
-        <v>0.91719022567592923</v>
-      </c>
-      <c r="AK214" s="22"/>
-      <c r="AL214" s="22"/>
+        <v>0.94354016103626792</v>
+      </c>
       <c r="AM214" s="2"/>
       <c r="AN214" s="2"/>
       <c r="AO214" s="2"/>
       <c r="AP214" s="2"/>
-      <c r="AQ214" s="21">
-        <v>100.97059090909089</v>
-      </c>
-      <c r="AR214" s="21">
-        <v>0.74354124739869665</v>
-      </c>
-      <c r="AS214" s="18"/>
-      <c r="AT214" s="19"/>
-      <c r="AU214" s="19"/>
-      <c r="AV214" s="19"/>
-      <c r="AW214" s="19"/>
-      <c r="AX214" s="19"/>
-      <c r="AY214" s="19"/>
-      <c r="AZ214" s="19"/>
-      <c r="BA214" s="19"/>
-      <c r="BB214" s="19"/>
-      <c r="BC214" s="19"/>
-      <c r="BD214" s="19"/>
-      <c r="BE214" s="19"/>
-      <c r="BF214" s="19"/>
-      <c r="BG214" s="19"/>
-      <c r="BH214" s="19"/>
-      <c r="BI214" s="19"/>
-      <c r="BJ214" s="19"/>
-      <c r="BK214" s="19"/>
-      <c r="BL214" s="19"/>
-      <c r="BM214" s="19"/>
-      <c r="BN214" s="19"/>
-      <c r="BO214" s="19"/>
-      <c r="BP214" s="19"/>
-      <c r="BQ214" s="19"/>
-      <c r="BR214" s="19"/>
-      <c r="BS214" s="19"/>
-      <c r="BT214" s="19"/>
-      <c r="BU214" s="19"/>
-      <c r="BV214" s="19"/>
-      <c r="BW214" s="19"/>
-      <c r="BX214" s="19"/>
-      <c r="BY214" s="19"/>
-      <c r="BZ214" s="19"/>
-      <c r="CA214" s="19"/>
-      <c r="CB214" s="19"/>
-      <c r="CC214" s="19"/>
-      <c r="CD214" s="19"/>
-      <c r="CE214" s="19"/>
-      <c r="CF214" s="19"/>
-      <c r="CG214" s="19"/>
-      <c r="CH214" s="19"/>
-      <c r="CI214" s="19"/>
-      <c r="CJ214" s="19"/>
-      <c r="CK214" s="19"/>
-      <c r="CL214" s="19"/>
-      <c r="CM214" s="19"/>
-      <c r="CN214" s="19"/>
-      <c r="CO214" s="19"/>
-      <c r="CP214" s="19"/>
-      <c r="CQ214" s="19"/>
-      <c r="CR214" s="19"/>
-      <c r="CS214" s="19"/>
-      <c r="CT214" s="19"/>
-      <c r="CU214" s="19"/>
-      <c r="CV214" s="19"/>
-      <c r="CW214" s="19"/>
-      <c r="CX214" s="19"/>
-      <c r="CY214" s="19"/>
-      <c r="CZ214" s="19"/>
-      <c r="DA214" s="19"/>
-      <c r="DB214" s="19"/>
-      <c r="DC214" s="19"/>
-      <c r="DD214" s="19"/>
-      <c r="DE214" s="19"/>
-      <c r="DF214" s="19"/>
-      <c r="DG214" s="19"/>
-      <c r="DH214" s="19"/>
-      <c r="DI214" s="19"/>
-      <c r="DJ214" s="19"/>
-      <c r="DK214" s="19"/>
-      <c r="DL214" s="19"/>
-      <c r="DM214" s="19"/>
-      <c r="DN214" s="19"/>
-      <c r="DO214" s="19"/>
-      <c r="DP214" s="19"/>
-      <c r="DQ214" s="19"/>
-      <c r="DR214" s="1"/>
-      <c r="DS214" s="1"/>
-      <c r="DT214" s="1"/>
-      <c r="DU214" s="1"/>
-      <c r="DV214" s="1"/>
-      <c r="DW214" s="1"/>
-      <c r="DX214" s="1"/>
-      <c r="DY214" s="1"/>
-      <c r="DZ214" s="1"/>
-      <c r="EA214" s="1"/>
-      <c r="EB214" s="1"/>
-      <c r="EC214" s="1"/>
-      <c r="ED214" s="1"/>
-      <c r="EE214" s="1"/>
-      <c r="EF214" s="1"/>
-      <c r="EG214" s="1"/>
-      <c r="EH214" s="1"/>
-      <c r="EI214" s="1"/>
-      <c r="EJ214" s="1"/>
-      <c r="EK214" s="1"/>
-      <c r="EL214" s="1"/>
-      <c r="EM214" s="1"/>
-      <c r="EN214" s="1"/>
-      <c r="EO214" s="1"/>
-      <c r="EP214" s="1"/>
-      <c r="EQ214" s="1"/>
-      <c r="ER214" s="1"/>
-      <c r="ES214" s="1"/>
-      <c r="ET214" s="1"/>
-      <c r="EU214" s="1"/>
-      <c r="EV214" s="1"/>
-      <c r="EW214" s="1"/>
-      <c r="EX214" s="1"/>
-      <c r="EY214" s="1"/>
-      <c r="EZ214" s="1"/>
-      <c r="FA214" s="1"/>
-      <c r="FB214" s="1"/>
-      <c r="FC214" s="1"/>
-      <c r="FD214" s="1"/>
-      <c r="FE214" s="1"/>
-      <c r="FF214" s="1"/>
+      <c r="AQ214" s="24">
+        <v>99.212241875000004</v>
+      </c>
+      <c r="AR214" s="24">
+        <v>0.55084998032726928</v>
+      </c>
+      <c r="AT214" s="25"/>
+      <c r="AU214" s="25"/>
+      <c r="AW214" s="25"/>
+      <c r="AX214" s="25"/>
+      <c r="AZ214" s="25"/>
+      <c r="BA214" s="25"/>
+      <c r="BC214" s="26"/>
+      <c r="BD214" s="26"/>
+      <c r="BF214" s="25"/>
+      <c r="BG214" s="25"/>
+      <c r="BI214" s="27"/>
+      <c r="BJ214" s="27"/>
+      <c r="BL214" s="26"/>
+      <c r="BM214" s="26"/>
+      <c r="BO214" s="25"/>
+      <c r="BP214" s="25"/>
+      <c r="BR214" s="26"/>
+      <c r="BS214" s="26"/>
+      <c r="BU214" s="25"/>
+      <c r="BV214" s="25"/>
+      <c r="BX214" s="25"/>
+      <c r="BY214" s="25"/>
+      <c r="CA214" s="27"/>
+      <c r="CB214" s="27"/>
+      <c r="CD214" s="27"/>
+      <c r="CE214" s="27"/>
+      <c r="CG214" s="25"/>
+      <c r="CH214" s="25"/>
+      <c r="CJ214" s="27"/>
+      <c r="CK214" s="27"/>
+      <c r="CM214" s="25"/>
+      <c r="CN214" s="25"/>
+      <c r="CP214" s="27"/>
+      <c r="CQ214" s="27"/>
+      <c r="CS214" s="25"/>
+      <c r="CT214" s="25"/>
+      <c r="CV214" s="27"/>
+      <c r="CW214" s="27"/>
+      <c r="CY214" s="27"/>
+      <c r="CZ214" s="27"/>
+      <c r="DB214" s="27"/>
+      <c r="DC214" s="27"/>
+      <c r="DE214" s="25"/>
+      <c r="DF214" s="25"/>
+      <c r="DH214" s="25"/>
+      <c r="DI214" s="25"/>
+      <c r="DK214" s="27"/>
+      <c r="DL214" s="27"/>
+      <c r="DN214" s="25"/>
+      <c r="DO214" s="25"/>
     </row>
-    <row r="215" spans="1:162" x14ac:dyDescent="0.25">
-      <c r="A215" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F215" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="G215" s="4">
-        <v>24</v>
-      </c>
-      <c r="H215" s="24">
-        <v>76.929310791666666</v>
-      </c>
-      <c r="I215" s="24">
-        <v>0.55188828743631513</v>
-      </c>
-      <c r="J215" s="2">
-        <f t="shared" si="79"/>
-        <v>0.71739663563461709</v>
-      </c>
-      <c r="K215" s="24">
-        <v>7.2416666666666657E-2</v>
-      </c>
-      <c r="L215" s="24">
-        <v>1.0421201911265559E-2</v>
-      </c>
-      <c r="M215" s="2">
-        <f t="shared" si="80"/>
-        <v>14.390612535694673</v>
-      </c>
-      <c r="N215" s="24">
-        <v>12.170573624999998</v>
-      </c>
-      <c r="O215" s="24">
-        <v>9.4296883631392631E-2</v>
-      </c>
-      <c r="P215" s="2">
-        <f t="shared" si="81"/>
-        <v>0.77479407739413475</v>
-      </c>
-      <c r="Q215" s="2"/>
+    <row r="215" spans="1:162" x14ac:dyDescent="0.3">
+      <c r="A215" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B215" s="1"/>
+      <c r="C215" s="53"/>
+      <c r="D215" s="53"/>
+      <c r="E215" s="53"/>
+      <c r="F215" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H215" s="68">
+        <v>52.48</v>
+      </c>
+      <c r="I215" s="68"/>
+      <c r="J215" s="2"/>
+      <c r="K215" s="68">
+        <v>1.0609999999999999</v>
+      </c>
+      <c r="L215" s="68"/>
+      <c r="M215" s="2"/>
+      <c r="N215" s="68">
+        <v>15.18</v>
+      </c>
+      <c r="O215" s="68"/>
+      <c r="P215" s="2"/>
+      <c r="Q215" s="2">
+        <v>10.7</v>
+      </c>
       <c r="R215" s="2"/>
-      <c r="S215" s="24">
-        <v>1.0796426666666668</v>
-      </c>
-      <c r="T215" s="24">
-        <v>4.5006372614153863E-2</v>
-      </c>
-      <c r="U215" s="2">
-        <f t="shared" si="82"/>
-        <v>4.1686359759297389</v>
-      </c>
-      <c r="V215" s="24">
-        <v>3.2208333333333346E-2</v>
-      </c>
-      <c r="W215" s="24">
-        <v>1.0051948401512306E-2</v>
-      </c>
-      <c r="X215" s="2">
-        <f>W215*100/V215</f>
-        <v>31.209154157347378</v>
-      </c>
-      <c r="Y215" s="24">
-        <v>2.4458333333333342E-2</v>
-      </c>
-      <c r="Z215" s="24">
-        <v>1.8516688516664857E-2</v>
-      </c>
-      <c r="AA215" s="2">
-        <f t="shared" si="83"/>
-        <v>75.707074003399725</v>
-      </c>
-      <c r="AB215" s="24">
-        <v>0.4499445416666667</v>
-      </c>
-      <c r="AC215" s="24">
-        <v>2.5810090781942255E-2</v>
-      </c>
-      <c r="AD215" s="2">
-        <f t="shared" si="84"/>
-        <v>5.736282673046226</v>
-      </c>
-      <c r="AE215" s="24">
-        <v>3.521778541666666</v>
-      </c>
-      <c r="AF215" s="24">
-        <v>6.7675877033541734E-2</v>
-      </c>
-      <c r="AG215" s="2">
-        <f t="shared" si="85"/>
-        <v>1.921639201126895</v>
-      </c>
-      <c r="AH215" s="24">
-        <v>4.9319083749999999</v>
-      </c>
-      <c r="AI215" s="24">
-        <v>4.653453622363618E-2</v>
-      </c>
-      <c r="AJ215" s="2">
-        <f t="shared" si="86"/>
-        <v>0.94354016103626792</v>
-      </c>
+      <c r="S215" s="68"/>
+      <c r="T215" s="68"/>
+      <c r="U215" s="2"/>
+      <c r="V215" s="68">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="W215" s="68"/>
+      <c r="X215" s="2"/>
+      <c r="Y215" s="68">
+        <v>6.26</v>
+      </c>
+      <c r="Z215" s="68"/>
+      <c r="AA215" s="2"/>
+      <c r="AB215" s="68">
+        <v>11.13</v>
+      </c>
+      <c r="AC215" s="68"/>
+      <c r="AD215" s="2"/>
+      <c r="AE215" s="68">
+        <v>2.21</v>
+      </c>
+      <c r="AF215" s="68"/>
+      <c r="AG215" s="2"/>
+      <c r="AH215" s="68">
+        <v>0.62</v>
+      </c>
+      <c r="AI215" s="68"/>
+      <c r="AJ215" s="2"/>
+      <c r="AK215" s="68">
+        <v>0.15</v>
+      </c>
+      <c r="AL215" s="22"/>
       <c r="AM215" s="2"/>
       <c r="AN215" s="2"/>
       <c r="AO215" s="2"/>
       <c r="AP215" s="2"/>
-      <c r="AQ215" s="24">
-        <v>99.212241875000004</v>
-      </c>
-      <c r="AR215" s="24">
-        <v>0.55084998032726928</v>
-      </c>
-      <c r="AT215" s="25"/>
-      <c r="AU215" s="25"/>
-      <c r="AW215" s="25"/>
-      <c r="AX215" s="25"/>
-      <c r="AZ215" s="25"/>
-      <c r="BA215" s="25"/>
-      <c r="BC215" s="26"/>
-      <c r="BD215" s="26"/>
-      <c r="BF215" s="25"/>
-      <c r="BG215" s="25"/>
-      <c r="BI215" s="27"/>
-      <c r="BJ215" s="27"/>
-      <c r="BL215" s="26"/>
-      <c r="BM215" s="26"/>
-      <c r="BO215" s="25"/>
-      <c r="BP215" s="25"/>
-      <c r="BR215" s="26"/>
-      <c r="BS215" s="26"/>
-      <c r="BU215" s="25"/>
-      <c r="BV215" s="25"/>
-      <c r="BX215" s="25"/>
-      <c r="BY215" s="25"/>
-      <c r="CA215" s="27"/>
-      <c r="CB215" s="27"/>
-      <c r="CD215" s="27"/>
-      <c r="CE215" s="27"/>
-      <c r="CG215" s="25"/>
-      <c r="CH215" s="25"/>
-      <c r="CJ215" s="27"/>
-      <c r="CK215" s="27"/>
-      <c r="CM215" s="25"/>
-      <c r="CN215" s="25"/>
-      <c r="CP215" s="27"/>
-      <c r="CQ215" s="27"/>
-      <c r="CS215" s="25"/>
-      <c r="CT215" s="25"/>
-      <c r="CV215" s="27"/>
-      <c r="CW215" s="27"/>
-      <c r="CY215" s="27"/>
-      <c r="CZ215" s="27"/>
-      <c r="DB215" s="27"/>
-      <c r="DC215" s="27"/>
-      <c r="DE215" s="25"/>
-      <c r="DF215" s="25"/>
-      <c r="DH215" s="25"/>
-      <c r="DI215" s="25"/>
-      <c r="DK215" s="27"/>
-      <c r="DL215" s="27"/>
-      <c r="DN215" s="25"/>
-      <c r="DO215" s="25"/>
+      <c r="AQ215" s="22"/>
+      <c r="AR215" s="22"/>
+      <c r="AS215" s="22"/>
+      <c r="AT215" s="22"/>
+      <c r="AU215" s="22"/>
+      <c r="AV215" s="68">
+        <v>190</v>
+      </c>
+      <c r="AW215" s="68"/>
+      <c r="AX215" s="68"/>
+      <c r="AY215" s="68">
+        <v>20</v>
+      </c>
+      <c r="AZ215" s="68"/>
+      <c r="BA215" s="68"/>
+      <c r="BB215" s="68">
+        <v>86</v>
+      </c>
+      <c r="BC215" s="22"/>
+      <c r="BD215" s="22"/>
+      <c r="BE215" s="22"/>
+      <c r="BF215" s="22"/>
+      <c r="BG215" s="22"/>
+      <c r="BH215" s="68">
+        <v>0.8</v>
+      </c>
+      <c r="BI215" s="68"/>
+      <c r="BJ215" s="68"/>
+      <c r="BK215" s="68">
+        <v>175</v>
+      </c>
+      <c r="BL215" s="68"/>
+      <c r="BM215" s="68"/>
+      <c r="BN215" s="68">
+        <v>10.4</v>
+      </c>
+      <c r="BO215" s="68"/>
+      <c r="BP215" s="68"/>
+      <c r="BQ215" s="68">
+        <v>23.5</v>
+      </c>
+      <c r="BR215" s="68"/>
+      <c r="BS215" s="68"/>
+      <c r="BT215" s="68"/>
+      <c r="BU215" s="68"/>
+      <c r="BV215" s="68"/>
+      <c r="BW215" s="68">
+        <v>12.1</v>
+      </c>
+      <c r="BX215" s="68"/>
+      <c r="BY215" s="68"/>
+      <c r="BZ215" s="68">
+        <v>3.1</v>
+      </c>
+      <c r="CA215" s="68"/>
+      <c r="CB215" s="68"/>
+      <c r="CC215" s="68">
+        <v>1.03</v>
+      </c>
+      <c r="CD215" s="1"/>
+      <c r="CE215" s="1"/>
+      <c r="CF215" s="1"/>
+      <c r="CG215" s="68"/>
+      <c r="CH215" s="68"/>
+      <c r="CI215" s="68">
+        <v>0.6</v>
+      </c>
+      <c r="CJ215" s="68"/>
+      <c r="CK215" s="68"/>
+      <c r="CL215" s="68">
+        <v>3.6</v>
+      </c>
+      <c r="CM215" s="68"/>
+      <c r="CN215" s="68"/>
+      <c r="CO215" s="68">
+        <v>0.8</v>
+      </c>
+      <c r="CP215" s="1"/>
+      <c r="CQ215" s="1"/>
+      <c r="CR215" s="1"/>
+      <c r="CS215" s="68"/>
+      <c r="CT215" s="68"/>
+      <c r="CU215" s="68"/>
+      <c r="CV215" s="68"/>
+      <c r="CW215" s="68"/>
+      <c r="CX215" s="68">
+        <v>1.9</v>
+      </c>
+      <c r="CY215" s="1"/>
+      <c r="CZ215" s="1"/>
+      <c r="DA215" s="1"/>
+      <c r="DB215" s="1"/>
+      <c r="DC215" s="1"/>
+      <c r="DD215" s="1"/>
+      <c r="DE215" s="68"/>
+      <c r="DF215" s="68"/>
+      <c r="DG215" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="DH215" s="68"/>
+      <c r="DI215" s="68"/>
+      <c r="DJ215" s="68"/>
+      <c r="DK215" s="68"/>
+      <c r="DL215" s="68"/>
+      <c r="DM215" s="68">
+        <v>2.4</v>
+      </c>
+      <c r="DN215" s="68"/>
+      <c r="DO215" s="68"/>
+      <c r="DP215" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="DQ215" s="1"/>
+      <c r="DR215" s="68"/>
+      <c r="DS215" s="68"/>
+      <c r="DT215" s="1"/>
+      <c r="DU215" s="1"/>
+      <c r="DV215" s="1"/>
+      <c r="DW215" s="1"/>
+      <c r="DX215" s="1"/>
+      <c r="DY215" s="1"/>
+      <c r="DZ215" s="1"/>
+      <c r="EA215" s="1"/>
+      <c r="EB215" s="1"/>
+      <c r="EC215" s="1"/>
+      <c r="ED215" s="1"/>
+      <c r="EE215" s="1"/>
+      <c r="EF215" s="1"/>
+      <c r="EG215" s="1"/>
+      <c r="EH215" s="1"/>
+      <c r="EI215" s="1"/>
+      <c r="EJ215" s="1"/>
+      <c r="EK215" s="1"/>
+      <c r="EL215" s="1"/>
+      <c r="EM215" s="1"/>
+      <c r="EN215" s="1"/>
+      <c r="EO215" s="1"/>
+      <c r="EP215" s="1"/>
+      <c r="EQ215" s="1"/>
+      <c r="ER215" s="1"/>
+      <c r="ES215" s="1"/>
+      <c r="ET215" s="1"/>
+      <c r="EU215" s="1"/>
+      <c r="EV215" s="1"/>
+      <c r="EW215" s="1"/>
+      <c r="EX215" s="1"/>
+      <c r="EY215" s="1"/>
+      <c r="EZ215" s="1"/>
+      <c r="FA215" s="1"/>
+      <c r="FB215" s="1"/>
+      <c r="FC215" s="1"/>
+      <c r="FD215" s="1"/>
+      <c r="FE215" s="1"/>
+      <c r="FF215" s="1"/>
     </row>
-    <row r="216" spans="1:162" x14ac:dyDescent="0.25">
-      <c r="A216" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="B216" s="1"/>
-      <c r="C216" s="53"/>
-      <c r="D216" s="53"/>
-      <c r="E216" s="53"/>
-      <c r="F216" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="G216" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H216" s="68">
-        <v>52.48</v>
-      </c>
-      <c r="I216" s="68"/>
-      <c r="J216" s="2"/>
-      <c r="K216" s="68">
-        <v>1.0609999999999999</v>
-      </c>
-      <c r="L216" s="68"/>
-      <c r="M216" s="2"/>
-      <c r="N216" s="68">
-        <v>15.18</v>
-      </c>
-      <c r="O216" s="68"/>
-      <c r="P216" s="2"/>
-      <c r="Q216" s="2">
-        <v>10.7</v>
-      </c>
-      <c r="R216" s="2"/>
-      <c r="S216" s="68"/>
-      <c r="T216" s="68"/>
-      <c r="U216" s="2"/>
-      <c r="V216" s="68">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="W216" s="68"/>
-      <c r="X216" s="2"/>
-      <c r="Y216" s="68">
-        <v>6.26</v>
-      </c>
-      <c r="Z216" s="68"/>
-      <c r="AA216" s="2"/>
-      <c r="AB216" s="68">
-        <v>11.13</v>
-      </c>
-      <c r="AC216" s="68"/>
-      <c r="AD216" s="2"/>
-      <c r="AE216" s="68">
-        <v>2.21</v>
-      </c>
-      <c r="AF216" s="68"/>
-      <c r="AG216" s="2"/>
-      <c r="AH216" s="68">
-        <v>0.62</v>
-      </c>
-      <c r="AI216" s="68"/>
-      <c r="AJ216" s="2"/>
-      <c r="AK216" s="68">
-        <v>0.15</v>
-      </c>
-      <c r="AL216" s="22"/>
-      <c r="AM216" s="2"/>
-      <c r="AN216" s="2"/>
-      <c r="AO216" s="2"/>
-      <c r="AP216" s="2"/>
-      <c r="AQ216" s="22"/>
-      <c r="AR216" s="22"/>
-      <c r="AS216" s="22"/>
-      <c r="AT216" s="22"/>
-      <c r="AU216" s="22"/>
-      <c r="AV216" s="68">
-        <v>190</v>
-      </c>
-      <c r="AW216" s="68"/>
-      <c r="AX216" s="68"/>
-      <c r="AY216" s="68">
-        <v>20</v>
-      </c>
-      <c r="AZ216" s="68"/>
-      <c r="BA216" s="68"/>
-      <c r="BB216" s="68">
-        <v>86</v>
-      </c>
-      <c r="BC216" s="22"/>
-      <c r="BD216" s="22"/>
-      <c r="BE216" s="22"/>
-      <c r="BF216" s="22"/>
-      <c r="BG216" s="22"/>
-      <c r="BH216" s="68">
-        <v>0.8</v>
-      </c>
-      <c r="BI216" s="68"/>
-      <c r="BJ216" s="68"/>
-      <c r="BK216" s="68">
-        <v>175</v>
-      </c>
-      <c r="BL216" s="68"/>
-      <c r="BM216" s="68"/>
-      <c r="BN216" s="68">
-        <v>10.4</v>
-      </c>
-      <c r="BO216" s="68"/>
-      <c r="BP216" s="68"/>
-      <c r="BQ216" s="68">
-        <v>23.5</v>
-      </c>
-      <c r="BR216" s="68"/>
-      <c r="BS216" s="68"/>
-      <c r="BT216" s="68"/>
-      <c r="BU216" s="68"/>
-      <c r="BV216" s="68"/>
-      <c r="BW216" s="68">
-        <v>12.1</v>
-      </c>
-      <c r="BX216" s="68"/>
-      <c r="BY216" s="68"/>
-      <c r="BZ216" s="68">
-        <v>3.1</v>
-      </c>
-      <c r="CA216" s="68"/>
-      <c r="CB216" s="68"/>
-      <c r="CC216" s="68">
-        <v>1.03</v>
-      </c>
-      <c r="CD216" s="1"/>
-      <c r="CE216" s="1"/>
-      <c r="CF216" s="1"/>
-      <c r="CG216" s="68"/>
-      <c r="CH216" s="68"/>
-      <c r="CI216" s="68">
-        <v>0.6</v>
-      </c>
-      <c r="CJ216" s="68"/>
-      <c r="CK216" s="68"/>
-      <c r="CL216" s="68">
-        <v>3.6</v>
-      </c>
-      <c r="CM216" s="68"/>
-      <c r="CN216" s="68"/>
-      <c r="CO216" s="68">
-        <v>0.8</v>
-      </c>
-      <c r="CP216" s="1"/>
-      <c r="CQ216" s="1"/>
-      <c r="CR216" s="1"/>
-      <c r="CS216" s="68"/>
-      <c r="CT216" s="68"/>
-      <c r="CU216" s="68"/>
-      <c r="CV216" s="68"/>
-      <c r="CW216" s="68"/>
-      <c r="CX216" s="68">
-        <v>1.9</v>
-      </c>
-      <c r="CY216" s="1"/>
-      <c r="CZ216" s="1"/>
-      <c r="DA216" s="1"/>
-      <c r="DB216" s="1"/>
-      <c r="DC216" s="1"/>
-      <c r="DD216" s="1"/>
-      <c r="DE216" s="68"/>
-      <c r="DF216" s="68"/>
-      <c r="DG216" s="68">
-        <v>0.5</v>
-      </c>
-      <c r="DH216" s="68"/>
-      <c r="DI216" s="68"/>
-      <c r="DJ216" s="68"/>
-      <c r="DK216" s="68"/>
-      <c r="DL216" s="68"/>
-      <c r="DM216" s="68">
-        <v>2.4</v>
-      </c>
-      <c r="DN216" s="68"/>
-      <c r="DO216" s="68"/>
-      <c r="DP216" s="68">
-        <v>0.5</v>
-      </c>
-      <c r="DQ216" s="1"/>
-      <c r="DR216" s="68"/>
-      <c r="DS216" s="68"/>
-      <c r="DT216" s="1"/>
-      <c r="DU216" s="1"/>
-      <c r="DV216" s="1"/>
-      <c r="DW216" s="1"/>
-      <c r="DX216" s="1"/>
-      <c r="DY216" s="1"/>
-      <c r="DZ216" s="1"/>
-      <c r="EA216" s="1"/>
-      <c r="EB216" s="1"/>
-      <c r="EC216" s="1"/>
-      <c r="ED216" s="1"/>
-      <c r="EE216" s="1"/>
-      <c r="EF216" s="1"/>
-      <c r="EG216" s="1"/>
-      <c r="EH216" s="1"/>
-      <c r="EI216" s="1"/>
-      <c r="EJ216" s="1"/>
-      <c r="EK216" s="1"/>
-      <c r="EL216" s="1"/>
-      <c r="EM216" s="1"/>
-      <c r="EN216" s="1"/>
-      <c r="EO216" s="1"/>
-      <c r="EP216" s="1"/>
-      <c r="EQ216" s="1"/>
-      <c r="ER216" s="1"/>
-      <c r="ES216" s="1"/>
-      <c r="ET216" s="1"/>
-      <c r="EU216" s="1"/>
-      <c r="EV216" s="1"/>
-      <c r="EW216" s="1"/>
-      <c r="EX216" s="1"/>
-      <c r="EY216" s="1"/>
-      <c r="EZ216" s="1"/>
-      <c r="FA216" s="1"/>
-      <c r="FB216" s="1"/>
-      <c r="FC216" s="1"/>
-      <c r="FD216" s="1"/>
-      <c r="FE216" s="1"/>
-      <c r="FF216" s="1"/>
+    <row r="10457" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F10457" s="1"/>
     </row>
-    <row r="217" spans="1:162" x14ac:dyDescent="0.25">
-      <c r="C217" s="6">
-        <v>10</v>
-      </c>
-      <c r="D217" s="6">
-        <v>15</v>
-      </c>
-      <c r="E217" s="6">
-        <v>6</v>
-      </c>
-      <c r="AS217" s="7"/>
-      <c r="AT217" s="7"/>
-      <c r="AU217" s="7"/>
-      <c r="AV217" s="7"/>
-      <c r="AW217" s="7"/>
-      <c r="AX217" s="7"/>
-      <c r="AY217" s="7"/>
-      <c r="AZ217" s="7"/>
-      <c r="BA217" s="7"/>
-      <c r="BB217" s="14"/>
-      <c r="DR217" s="12"/>
-      <c r="DS217" s="12"/>
-      <c r="DT217" s="12"/>
-      <c r="DU217" s="12"/>
-      <c r="DV217" s="12"/>
+    <row r="10458" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F10458" s="1"/>
     </row>
-    <row r="218" spans="1:162" x14ac:dyDescent="0.25">
-      <c r="C218" s="6">
-        <v>10</v>
-      </c>
-      <c r="D218" s="6">
-        <v>15</v>
-      </c>
-      <c r="E218" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="H218" s="4"/>
-      <c r="AS218" s="7"/>
-      <c r="AT218" s="7"/>
-      <c r="AU218" s="7"/>
-      <c r="AV218" s="7"/>
-      <c r="AW218" s="7"/>
-      <c r="AX218" s="7"/>
-      <c r="AY218" s="7"/>
-      <c r="AZ218" s="7"/>
-      <c r="BA218" s="7"/>
-      <c r="BB218" s="7"/>
-      <c r="BC218" s="7"/>
-      <c r="BD218" s="7"/>
-      <c r="BE218" s="7"/>
-      <c r="BF218" s="7"/>
-      <c r="BG218" s="7"/>
-      <c r="BH218" s="7"/>
-      <c r="BI218" s="14"/>
-      <c r="BJ218" s="14"/>
-      <c r="DR218" s="12"/>
-      <c r="DS218" s="12"/>
-      <c r="DT218" s="12"/>
-      <c r="DU218" s="12"/>
-      <c r="DV218" s="12"/>
-      <c r="DW218" s="12"/>
-      <c r="DX218" s="12"/>
+    <row r="10459" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F10459" s="1"/>
     </row>
-    <row r="10460" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="10460" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F10460" s="1"/>
     </row>
-    <row r="10461" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="10461" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F10461" s="1"/>
     </row>
-    <row r="10462" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="10462" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F10462" s="1"/>
     </row>
-    <row r="10463" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="10463" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F10463" s="1"/>
     </row>
-    <row r="10464" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="10464" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F10464" s="1"/>
     </row>
-    <row r="10465" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="10465" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F10465" s="1"/>
     </row>
-    <row r="10466" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="10466" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F10466" s="1"/>
     </row>
-    <row r="10467" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="10467" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F10467" s="1"/>
     </row>
-    <row r="10468" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="10468" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F10468" s="1"/>
     </row>
-    <row r="10469" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="10469" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F10469" s="1"/>
     </row>
-    <row r="10470" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="10470" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F10470" s="1"/>
     </row>
-    <row r="10471" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="10471" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F10471" s="1"/>
     </row>
-    <row r="10472" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="10472" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F10472" s="1"/>
     </row>
-    <row r="10473" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="10473" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F10473" s="1"/>
     </row>
-    <row r="10474" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="10474" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F10474" s="1"/>
     </row>
-    <row r="10475" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="10475" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F10475" s="1"/>
-    </row>
-    <row r="10476" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F10476" s="1"/>
-    </row>
-    <row r="10477" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F10477" s="1"/>
-    </row>
-    <row r="10478" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F10478" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
